--- a/ReDistr/tests/Параметры.xlsx
+++ b/ReDistr/tests/Параметры.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Код</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Кратность</t>
   </si>
   <si>
-    <t>HYUNDAI-KIA</t>
-  </si>
-  <si>
     <t>GENERAL MOTORS</t>
   </si>
   <si>
@@ -64,12 +61,6 @@
     <t>96568723</t>
   </si>
   <si>
-    <t>55300-M1200</t>
-  </si>
-  <si>
-    <t>АМОРТИЗАТОР</t>
-  </si>
-  <si>
     <t>Парсинг - исключения</t>
   </si>
   <si>
@@ -85,10 +76,10 @@
     <t>6</t>
   </si>
   <si>
-    <t>Перемещения ур1 - 3 комплекта на всех + кратность</t>
-  </si>
-  <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -511,27 +502,27 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -576,7 +567,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,16 +598,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -624,17 +606,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -1366,15 +1350,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>10</v>
